--- a/RUDN/Importance/Varible_muatal_reg_in_Caribbean.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Caribbean.xlsx
@@ -61,12 +61,12 @@
     <t>Urban population (% of total)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
@@ -208,51 +208,51 @@
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
     <t>Male population 60-64</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
@@ -334,12 +334,12 @@
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
@@ -367,135 +367,135 @@
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
@@ -505,6 +505,9 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
@@ -517,9 +520,6 @@
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
@@ -592,24 +592,24 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
@@ -646,24 +646,24 @@
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
@@ -727,18 +727,18 @@
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
@@ -763,12 +763,12 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
@@ -787,15 +787,15 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
@@ -850,12 +850,12 @@
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -901,24 +901,24 @@
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
@@ -928,39 +928,42 @@
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
@@ -973,9 +976,6 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
@@ -985,30 +985,30 @@
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -1036,60 +1036,60 @@
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
@@ -1147,120 +1147,120 @@
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
     <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Literacy rate, adult total (% of people ages 15 and above)</t>
   </si>
   <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+    <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
@@ -1282,15 +1282,15 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
@@ -1303,12 +1303,12 @@
     <t>Expected years of schooling, female</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
@@ -1360,94 +1360,94 @@
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
   </si>
   <si>
     <t>Years</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.09410063890137</v>
+        <v>2.093401338202069</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.020312240753282</v>
+        <v>2.01798123842228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.800095565948745</v>
+        <v>1.800969691822871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.736686927464383</v>
+        <v>1.738435179212635</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.725991001144909</v>
+        <v>1.724242749396657</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.499223163267953</v>
+        <v>1.502145066539506</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.472939601192532</v>
+        <v>1.473522351775283</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388536027813695</v>
+        <v>1.387275751116603</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.387275751116603</v>
+        <v>1.386205025482693</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.29478742498684</v>
+        <v>1.293039173238589</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.244349572270929</v>
+        <v>1.24583882376018</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.16706069768933</v>
+        <v>1.164248433282043</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.098138462930298</v>
+        <v>1.097555712347547</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.074068163067047</v>
+        <v>1.073941936713219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.073941936713219</v>
+        <v>1.073842582196305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.06161726267003</v>
+        <v>1.060218661271429</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.043244163776512</v>
+        <v>1.042661413193762</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.041144768584235</v>
+        <v>1.03926606639973</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.03926606639973</v>
+        <v>1.039172702845808</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.038589952263057</v>
+        <v>1.036382984643369</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.020707669355741</v>
+        <v>1.020194852986837</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.020194852986837</v>
+        <v>1.018840831642221</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9859120164395336</v>
+        <v>0.9862251619016487</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9827513281573501</v>
+        <v>0.9859120164395336</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9697418959909889</v>
+        <v>0.9683432945923878</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9608954988126448</v>
+        <v>0.9610668594319618</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9474873330094484</v>
+        <v>0.9472210762776745</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9447880031696507</v>
+        <v>0.9450172820874538</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9410932802104817</v>
+        <v>0.9409786407515794</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9372883414930988</v>
+        <v>0.9371717913765489</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9326878516591952</v>
+        <v>0.9328432518145955</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9236215065353945</v>
+        <v>0.9257358767866832</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9232081015316349</v>
+        <v>0.9236215065353945</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9203219817776673</v>
+        <v>0.9205512606954709</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9130072872291253</v>
+        <v>0.9131471473689854</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9121948075870649</v>
+        <v>0.9122342454411538</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.9121176953246031</v>
+        <v>0.9121948075870654</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9107633639552926</v>
+        <v>0.9108719674729875</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9085885698861549</v>
+        <v>0.9085536276534476</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9084048402706173</v>
+        <v>0.9070462682967078</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9027354395283425</v>
+        <v>0.902777214588147</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9024197489539787</v>
+        <v>0.9022671275659218</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9021178799684837</v>
+        <v>0.9014794282328003</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9016113717609702</v>
+        <v>0.9012256390680122</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9012256390680122</v>
+        <v>0.9004907677984153</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9006179133801064</v>
+        <v>0.9003937970875986</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9001039160284872</v>
+        <v>0.8988341828590405</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8928549097154352</v>
+        <v>0.8929734352576895</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8925276936596904</v>
+        <v>0.8926862793797734</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8918932678878246</v>
+        <v>0.8918603706775079</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8908320454301464</v>
+        <v>0.8911168823987516</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8908313346132037</v>
+        <v>0.8904181792277623</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8904181792277623</v>
+        <v>0.8883919068158654</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8882574259121534</v>
+        <v>0.887867813466197</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8874433964211086</v>
+        <v>0.8873549147641098</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8873549147641098</v>
+        <v>0.8865410443917079</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8864183600584967</v>
+        <v>0.8848142888941508</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.8848142888941508</v>
+        <v>0.8844492552955243</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8844492552955243</v>
+        <v>0.8813476229363371</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.8815714894644537</v>
+        <v>0.8813025276570305</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8813476229363371</v>
+        <v>0.8808114504973008</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8808114504973008</v>
+        <v>0.8806225466296882</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8807474217545634</v>
+        <v>0.8776850355757664</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8776850355757664</v>
+        <v>0.877558944843063</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.877558944843063</v>
+        <v>0.8770787198161383</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.8770787198161387</v>
+        <v>0.8764758146124847</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8764758146124847</v>
+        <v>0.8759158866102545</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.8759158866102545</v>
+        <v>0.8758571398663786</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.8757251963382087</v>
+        <v>0.8754949093909019</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8750124598272211</v>
+        <v>0.8751351441604318</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8745054653426074</v>
+        <v>0.8744793010307286</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8697973926552061</v>
+        <v>0.8698918228470238</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8691503947989516</v>
+        <v>0.8697973926552061</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.8688715100108897</v>
+        <v>0.8691503947989516</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.8681749222954989</v>
+        <v>0.8688715100108897</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.8642607406780711</v>
+        <v>0.8681749222954989</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.853825270435044</v>
+        <v>0.8538369546572551</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.8391400211012703</v>
+        <v>0.83901052097177</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.8212082248601256</v>
+        <v>0.8209018645537651</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.7789104348939466</v>
+        <v>0.7798108181339243</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.7758820820828902</v>
+        <v>0.7733179795187877</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.7495662458529557</v>
+        <v>0.7469964236033324</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.7478009166232635</v>
+        <v>0.7423209300269462</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.716977082575448</v>
+        <v>0.7187894070722003</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.708413551429167</v>
+        <v>0.7055028174236231</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.7061202036025072</v>
+        <v>0.7043070646430116</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7043070646430116</v>
+        <v>0.7041501801182823</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6584876409534257</v>
+        <v>0.6671025587840187</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6254634384810567</v>
+        <v>0.6275000293155157</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5678288453785365</v>
+        <v>0.5685892737613427</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.5002277950107812</v>
+        <v>0.4941133738929617</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.491235730418045</v>
+        <v>0.4913845178008749</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4883571880113859</v>
+        <v>0.4889415314138543</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4861843149077787</v>
+        <v>0.4883571880113859</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4850426362750171</v>
+        <v>0.4874811034290425</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4843785975563999</v>
+        <v>0.4765672635269607</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4826523977371693</v>
+        <v>0.4755060014397885</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4749114319515273</v>
+        <v>0.4745941246148941</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4423353075768455</v>
+        <v>0.4423983076398448</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4216108711665183</v>
+        <v>0.4191118881050913</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4201832042270346</v>
+        <v>0.4171069275682511</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4000809847189215</v>
+        <v>0.4032879759619079</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3959003887936512</v>
+        <v>0.4025869226292746</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.392671269826939</v>
+        <v>0.3951535207128827</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3866407658588078</v>
+        <v>0.3864625928471397</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3467581419746675</v>
+        <v>0.3460658830276544</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3464600929785744</v>
+        <v>0.3458904964158458</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.334607825953221</v>
+        <v>0.3345158127033128</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3305319521397474</v>
+        <v>0.330170706839054</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3209983385968043</v>
+        <v>0.3204414358221594</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3190859170729239</v>
+        <v>0.3191844101291637</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3174480504954902</v>
+        <v>0.3173985048993861</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3171737055091297</v>
+        <v>0.3173660570172698</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3138218940821453</v>
+        <v>0.314177930721528</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3122387573629177</v>
+        <v>0.3138218940821453</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3101166043858441</v>
+        <v>0.3097550353479857</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.307222132299291</v>
+        <v>0.3073678199449787</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2811932208512788</v>
+        <v>0.2817138621632751</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2670122419370808</v>
+        <v>0.2671552964044228</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2669877990041967</v>
+        <v>0.267060764331021</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2596886072682909</v>
+        <v>0.2606043374546343</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2343496752014462</v>
+        <v>0.2335142557672198</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2339042741149853</v>
+        <v>0.2334320246187074</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2334320246187074</v>
+        <v>0.2334024727913655</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2311327711647275</v>
+        <v>0.232646665016204</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2253178624643752</v>
+        <v>0.224596320397213</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.222488649614512</v>
+        <v>0.221790938816697</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2147832051795147</v>
+        <v>0.2145680378814612</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2108902349058543</v>
+        <v>0.2108576539875</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2070444734112376</v>
+        <v>0.2068376564417087</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2052644980718707</v>
+        <v>0.2063959208951813</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2041077577309256</v>
+        <v>0.2054804264548467</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1979234440057418</v>
+        <v>0.198707328594204</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1967247421309233</v>
+        <v>0.1966649523994508</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1939289211031825</v>
+        <v>0.1940195296045097</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1938133070898218</v>
+        <v>0.1939289211031825</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1930457801104797</v>
+        <v>0.1931429052076055</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1720003728024455</v>
+        <v>0.1719836963151815</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1624333644303626</v>
+        <v>0.1618148933402928</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1618148933402928</v>
+        <v>0.1611250753144571</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1611250753144571</v>
+        <v>0.1610435087879358</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1577697287889144</v>
+        <v>0.1571160346569591</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1550772801399938</v>
+        <v>0.1542931453564971</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1461235657657873</v>
+        <v>0.1430700239378615</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1430700239378615</v>
+        <v>0.1428593296477363</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1428593296477363</v>
+        <v>0.1425344084906071</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1423531043593265</v>
+        <v>0.1422191335102507</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4301,7 +4301,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1422191335102507</v>
+        <v>0.1419089077372513</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1419089077372513</v>
+        <v>0.1416670426762345</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1416670426762345</v>
+        <v>0.1367853293110559</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1367853293110559</v>
+        <v>0.1364558841648862</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1367319239146101</v>
+        <v>0.1364066680429801</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1343502489507971</v>
+        <v>0.1348904221065563</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1338831725078495</v>
+        <v>0.1343502489507971</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1337819249452257</v>
+        <v>0.1338831725078495</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.133743440332446</v>
+        <v>0.1337819249452257</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1319477207252802</v>
+        <v>0.1320309708085303</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1304729464529577</v>
+        <v>0.1303649896798176</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1303649896798176</v>
+        <v>0.129831111505992</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1296413038860169</v>
+        <v>0.1297321221586534</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.129204312755693</v>
+        <v>0.1291458802992851</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1291458802992851</v>
+        <v>0.1291356634504905</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1291356634504905</v>
+        <v>0.1288332468486624</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1288332468486624</v>
+        <v>0.1285759601320378</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1285759601320378</v>
+        <v>0.1284522958482146</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1205435733317861</v>
+        <v>0.1208651333785058</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1100680080134533</v>
+        <v>0.110195153595144</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1095928525911558</v>
+        <v>0.1096791860108233</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1011340518690478</v>
+        <v>0.1020836213948133</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.09622016627910646</v>
+        <v>0.09614594121323328</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.09349393817847584</v>
+        <v>0.09334191628732302</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.09161380708974942</v>
+        <v>0.09030923330283014</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.09030923330283014</v>
+        <v>0.0901204553560131</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.08983700693369423</v>
+        <v>0.08979512145671964</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.08979512145671964</v>
+        <v>0.0895056850297915</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.08064007704854581</v>
+        <v>0.08060994085650619</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.07490394453140992</v>
+        <v>0.07480814991506746</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.07311085334567791</v>
+        <v>0.07365405072145448</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.05701041142365582</v>
+        <v>0.05813579866238583</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.05480425559072999</v>
+        <v>0.05568784105000479</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.05144640057052441</v>
+        <v>0.05130812322557055</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.04150119203169012</v>
+        <v>0.04139877294906014</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.04106578301593555</v>
+        <v>0.0406744701463293</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.03757202298969342</v>
+        <v>0.03733532629493364</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.02518963449811773</v>
+        <v>0.02460480033061163</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.02460480033061163</v>
+        <v>0.01897861497160647</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.01897861497160647</v>
+        <v>0.0150358278935272</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.0150358278935272</v>
+        <v>0.004768987074187159</v>
       </c>
     </row>
   </sheetData>
